--- a/docs/tabs/Table 2.xlsx
+++ b/docs/tabs/Table 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\SCALE\AsymTB\docs\tabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DB84ED-DD4B-4016-80C6-9D15727A833D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865F5C19-A2FE-4B82-8ED1-DE85B8968627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1560" windowWidth="21090" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="118">
   <si>
     <t>Blantyre</t>
   </si>
@@ -63,18 +63,12 @@
     <t>HIV</t>
   </si>
   <si>
-    <t>NonHIV</t>
-  </si>
-  <si>
     <t>4.81 (1.65-12.82)</t>
   </si>
   <si>
     <t>Kenya</t>
   </si>
   <si>
-    <t>0.91 (0.64-1.24)</t>
-  </si>
-  <si>
     <t>0.68 (0.50-0.89)</t>
   </si>
   <si>
@@ -84,45 +78,30 @@
     <t>[25,35)</t>
   </si>
   <si>
-    <t>1.13 (0.73-1.64)</t>
-  </si>
-  <si>
     <t>1.20 (0.77-1.69)</t>
   </si>
   <si>
     <t>[35,45)</t>
   </si>
   <si>
-    <t>1.39 (0.86-2.12)</t>
-  </si>
-  <si>
     <t>1.72 (1.10-2.54)</t>
   </si>
   <si>
     <t>[45,55)</t>
   </si>
   <si>
-    <t>1.33 (0.77-2.20)</t>
-  </si>
-  <si>
     <t>1.82 (0.95-3.17)</t>
   </si>
   <si>
     <t>[55,65)</t>
   </si>
   <si>
-    <t>0.94 (0.53-1.54)</t>
-  </si>
-  <si>
     <t>1.23 (0.68-2.06)</t>
   </si>
   <si>
     <t>[65,Inf)</t>
   </si>
   <si>
-    <t>1.40 (0.81-2.29)</t>
-  </si>
-  <si>
     <t>1.42 (0.89-2.34)</t>
   </si>
   <si>
@@ -139,12 +118,6 @@
   </si>
   <si>
     <t>RR, multivariate</t>
-  </si>
-  <si>
-    <t>3.7 (2.1-5.7)</t>
-  </si>
-  <si>
-    <t>7.2 (5.8-8.9)</t>
   </si>
   <si>
     <t>Asymptomatic 
@@ -159,226 +132,256 @@
 duration, month</t>
   </si>
   <si>
-    <t>3.7 (2.1-5.6)</t>
-  </si>
-  <si>
-    <t>7.6 (5.4-10.1)</t>
-  </si>
-  <si>
-    <t>3.2 (1.4-5.6)</t>
-  </si>
-  <si>
-    <t>6.7 (3.8-10.3)</t>
-  </si>
-  <si>
-    <t>5.0 (2.8-7.8)</t>
-  </si>
-  <si>
-    <t>10.0 (7.0-13.8)</t>
-  </si>
-  <si>
-    <t>7.7 (5.3-10.7)</t>
-  </si>
-  <si>
-    <t>4.9 (2.1-8.5)</t>
-  </si>
-  <si>
-    <t>8.8 (4.8-13.9)</t>
-  </si>
-  <si>
-    <t>6.8 (3.9-10.0)</t>
-  </si>
-  <si>
-    <t>15.2 (10.9-20.3)</t>
-  </si>
-  <si>
-    <t>2.4 (1.1-4.1)</t>
-  </si>
-  <si>
-    <t>3.7 (2.0-5.8)</t>
-  </si>
-  <si>
-    <t>8.4 (7.1- 9.7)</t>
-  </si>
-  <si>
-    <t>16.7 (14.6-19.1)</t>
-  </si>
-  <si>
-    <t>15.4 (12.9-18.2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.8 (8.2-11.5)</t>
-  </si>
-  <si>
-    <t>18.8 (16.1-22.0)</t>
-  </si>
-  <si>
-    <t>10.5 (8.1-13.3)</t>
-  </si>
-  <si>
-    <t>20.1 (16.1-24.6)</t>
-  </si>
-  <si>
-    <t>9.5 (7.6-11.7)</t>
-  </si>
-  <si>
-    <t>18.2 (15.1-21.5)</t>
-  </si>
-  <si>
-    <t>7.8 (5.9- 9.9)</t>
-  </si>
-  <si>
-    <t>14.9 (11.9-18.4)</t>
-  </si>
-  <si>
-    <t>8.3 (5.9-11.0)</t>
-  </si>
-  <si>
-    <t>15.8 (12.2-19.6)</t>
-  </si>
-  <si>
-    <t>5.2 (3.2-8.2)</t>
-  </si>
-  <si>
-    <t>15.1 (11.0-20.3)</t>
-  </si>
-  <si>
-    <t>5.4 (3.6-7.5)</t>
-  </si>
-  <si>
-    <t>12.4 (9.4-15.6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.9 (8.4-11.7)</t>
-  </si>
-  <si>
-    <t>19.7 (17.1-23.2)</t>
-  </si>
-  <si>
-    <t>3.7 (2.4-5.1)</t>
-  </si>
-  <si>
-    <t>7.2 (5.4-9.2)</t>
-  </si>
-  <si>
-    <t>8.4 (6.9-10.2)</t>
-  </si>
-  <si>
-    <t>1.24 (1.04-1.48)</t>
-  </si>
-  <si>
-    <t>8.1 (6.3-10.4)</t>
-  </si>
-  <si>
-    <t>1.29 (1.00-1.64)</t>
-  </si>
-  <si>
-    <t>9.1 (7.2-11.3)</t>
-  </si>
-  <si>
-    <t>1.14 (0.91-1.41)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.6 (6.6-13.2)</t>
-  </si>
-  <si>
-    <t>1.11 (0.77-1.60)</t>
-  </si>
-  <si>
-    <t>8.7 (6.4-11.3)</t>
-  </si>
-  <si>
-    <t>1.22 (0.91-1.62)</t>
-  </si>
-  <si>
-    <t>7.2 (4.9- 9.7)</t>
-  </si>
-  <si>
-    <t>1.54 (1.08-2.22)</t>
-  </si>
-  <si>
-    <t>7.5 (4.7-10.8)</t>
-  </si>
-  <si>
-    <t>1.49 (0.95-2.32)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.9 (6.2-14.5)</t>
-  </si>
-  <si>
-    <t>1.07 (0.66-1.71)</t>
-  </si>
-  <si>
-    <t>7.0 (4.4- 9.8)</t>
-  </si>
-  <si>
-    <t>1.55 (1.00-2.43)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.9 (8.0-12.3)</t>
-  </si>
-  <si>
-    <t>1.02 (0.84-1.23)</t>
-  </si>
-  <si>
-    <t>3.5 (2.2-5.2)</t>
-  </si>
-  <si>
-    <t>3.35 (2.12-5.33)</t>
-  </si>
-  <si>
-    <t>3.12 (1.91-4.81)</t>
-  </si>
-  <si>
-    <t>3.9 (2.2-5.9)</t>
-  </si>
-  <si>
-    <t>3.04 (1.85-5.19)</t>
-  </si>
-  <si>
-    <t>3.5 (1.3-6.6)</t>
-  </si>
-  <si>
-    <t>3.88 (1.64-9.18)</t>
-  </si>
-  <si>
-    <t>5.0 (2.7-8.1)</t>
-  </si>
-  <si>
-    <t>2.37 (1.30-4.27)</t>
-  </si>
-  <si>
-    <t>0.83 (0.30-1.84)</t>
-  </si>
-  <si>
-    <t>4.0 (2.1-6.2)</t>
-  </si>
-  <si>
-    <t>3.01 (1.76-5.34)</t>
-  </si>
-  <si>
-    <t>3.9 (1.2-8.2)</t>
-  </si>
-  <si>
-    <t>3.71 (1.25-9.94)</t>
-  </si>
-  <si>
-    <t>1.46 (0.45-4.02)</t>
-  </si>
-  <si>
-    <t>8.4 (5.0-12.7)</t>
-  </si>
-  <si>
-    <t>1.29 (0.76-2.15)</t>
-  </si>
-  <si>
-    <t>1.2 (0.3-3.0)</t>
-  </si>
-  <si>
-    <t>13.54 (3.88-44.03)</t>
-  </si>
-  <si>
-    <t>5.61 (1.97-13.17)</t>
+    <t>Non-HIV</t>
+  </si>
+  <si>
+    <t>PLHIV</t>
+  </si>
+  <si>
+    <t>3.8 (2.3 – 5.8)</t>
+  </si>
+  <si>
+    <t>3.10 (1.86 – 4.98)</t>
+  </si>
+  <si>
+    <t>3.5 (1.3 – 6.2)</t>
+  </si>
+  <si>
+    <t>3.90 (1.73 – 8.83)</t>
+  </si>
+  <si>
+    <t>4.9 (2.6 – 7.9)</t>
+  </si>
+  <si>
+    <t>2.46 (1.34 – 4.48)</t>
+  </si>
+  <si>
+    <t>0.82 (0.29 – 1.82)</t>
+  </si>
+  <si>
+    <t>4.0 (2.3 – 6.2)</t>
+  </si>
+  <si>
+    <t>3.00 (1.74 – 5.03)</t>
+  </si>
+  <si>
+    <t>3.5 (1.1 – 7.1)</t>
+  </si>
+  <si>
+    <t>4.17 (1.46 – 10.84)</t>
+  </si>
+  <si>
+    <t>1.53 (0.45 – 3.94)</t>
+  </si>
+  <si>
+    <t>8.5 (5.0 – 12.7)</t>
+  </si>
+  <si>
+    <t>1.29 (0.76 – 2.16)</t>
+  </si>
+  <si>
+    <t>1.3 (0.3 – 3.0)</t>
+  </si>
+  <si>
+    <t>12.79 (3.77 – 41.16)</t>
+  </si>
+  <si>
+    <t>5.33 (1.90 – 11.92)</t>
+  </si>
+  <si>
+    <t>8.3 (6.8 – 10.1)</t>
+  </si>
+  <si>
+    <t>1.25 (1.05 – 1.50)</t>
+  </si>
+  <si>
+    <t>8.1 (6.2 – 10.3)</t>
+  </si>
+  <si>
+    <t>1.30 (1.01 – 1.69)</t>
+  </si>
+  <si>
+    <t>9.0 (7.2 – 11.2)</t>
+  </si>
+  <si>
+    <t>1.14 (0.93 – 1.40)</t>
+  </si>
+  <si>
+    <t>0.89 (0.63 – 1.20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.5 (6.6 – 13.0)</t>
+  </si>
+  <si>
+    <t>1.11 (0.76 – 1.60)</t>
+  </si>
+  <si>
+    <t>8.6 (6.3 – 11.4)</t>
+  </si>
+  <si>
+    <t>1.23 (0.90 – 1.66)</t>
+  </si>
+  <si>
+    <t>1.13 (0.75 – 1.67)</t>
+  </si>
+  <si>
+    <t>7.1 (5.0 –  9.7)</t>
+  </si>
+  <si>
+    <t>1.55 (1.08 – 2.22)</t>
+  </si>
+  <si>
+    <t>1.43 (0.87 – 2.17)</t>
+  </si>
+  <si>
+    <t>7.4 (4.8 – 10.7)</t>
+  </si>
+  <si>
+    <t>1.49 (0.94 – 2.31)</t>
+  </si>
+  <si>
+    <t>1.39 (0.80 – 2.43)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.6 (6.1 – 13.7)</t>
+  </si>
+  <si>
+    <t>1.10 (0.70 – 1.74)</t>
+  </si>
+  <si>
+    <t>1.02 (0.55 – 1.72)</t>
+  </si>
+  <si>
+    <t>7.1 (4.6 – 10.2)</t>
+  </si>
+  <si>
+    <t>1.52 (0.97 – 2.35)</t>
+  </si>
+  <si>
+    <t>1.43 (0.80 – 2.55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.8 (7.9 – 12.2)</t>
+  </si>
+  <si>
+    <t>1.03 (0.85 – 1.25)</t>
+  </si>
+  <si>
+    <t>3.8 (2.4 – 5.6)</t>
+  </si>
+  <si>
+    <t>3.09 (1.96 – 4.80)</t>
+  </si>
+  <si>
+    <t>2.88 (1.82 – 4.54)</t>
+  </si>
+  <si>
+    <t>3.7 (2.3 – 5.4)</t>
+  </si>
+  <si>
+    <t>7.5 (5.4 – 10.1)</t>
+  </si>
+  <si>
+    <t>3.1 (1.3 – 5.5)</t>
+  </si>
+  <si>
+    <t>6.6 (3.5 – 10.2)</t>
+  </si>
+  <si>
+    <t>5.0 (2.9 – 7.7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.9 (6.7 – 13.8)</t>
+  </si>
+  <si>
+    <t>3.7 (2.1 – 5.6)</t>
+  </si>
+  <si>
+    <t>7.7 (5.3 – 10.3)</t>
+  </si>
+  <si>
+    <t>4.6 (1.9 – 8.1)</t>
+  </si>
+  <si>
+    <t>8.1 (4.3 – 12.5)</t>
+  </si>
+  <si>
+    <t>7.1 (4.3 – 10.8)</t>
+  </si>
+  <si>
+    <t>15.6 (11.3 – 20.8)</t>
+  </si>
+  <si>
+    <t>2.4 (1.0 – 4.1)</t>
+  </si>
+  <si>
+    <t>3.7 (1.9 – 6.0)</t>
+  </si>
+  <si>
+    <t>8.4 (7.1 –  9.7)</t>
+  </si>
+  <si>
+    <t>16.7 (14.5 – 19.1)</t>
+  </si>
+  <si>
+    <t>7.2 (5.8 – 8.8)</t>
+  </si>
+  <si>
+    <t>15.4 (13.0 – 18.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.7 (8.2 – 11.5)</t>
+  </si>
+  <si>
+    <t>18.8 (16.1 – 21.8)</t>
+  </si>
+  <si>
+    <t>10.4 (7.9 – 13.2)</t>
+  </si>
+  <si>
+    <t>20.0 (16.1 – 24.4)</t>
+  </si>
+  <si>
+    <t>9.4 (7.5 – 11.5)</t>
+  </si>
+  <si>
+    <t>18.0 (15.0 – 21.6)</t>
+  </si>
+  <si>
+    <t>7.7 (5.9 –  9.7)</t>
+  </si>
+  <si>
+    <t>14.7 (11.9 – 18.1)</t>
+  </si>
+  <si>
+    <t>8.3 (6.0 – 11.1)</t>
+  </si>
+  <si>
+    <t>15.7 (12.4 – 19.7)</t>
+  </si>
+  <si>
+    <t>5.2 (3.1 – 8.3)</t>
+  </si>
+  <si>
+    <t>14.8 (10.9 – 19.4)</t>
+  </si>
+  <si>
+    <t>5.3 (3.4 – 7.7)</t>
+  </si>
+  <si>
+    <t>12.4 (9.4 – 16.0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.9 (8.5 – 11.7)</t>
+  </si>
+  <si>
+    <t>19.7 (17.1 – 23.0)</t>
+  </si>
+  <si>
+    <t>4.0 (2.5 – 5.7)</t>
+  </si>
+  <si>
+    <t>7.8 (5.8 – 10.2)</t>
   </si>
 </sst>
 </file>
@@ -480,10 +483,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,11 +495,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -814,7 +817,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:G9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,34 +836,34 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="21" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="1"/>
       <c r="I1" s="11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>37</v>
+      <c r="E2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="12"/>
@@ -870,24 +873,24 @@
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>44</v>
+      <c r="I3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -895,53 +898,53 @@
       <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>46</v>
+      <c r="I4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="D5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>48</v>
+      <c r="I5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -949,53 +952,53 @@
       <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>49</v>
+      <c r="I6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="19"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="D7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>51</v>
+      <c r="I7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1003,89 +1006,89 @@
       <c r="B8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>53</v>
+      <c r="I8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="18"/>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
+      <c r="C9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>55</v>
+      <c r="I9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>57</v>
+      <c r="I11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1093,53 +1096,53 @@
       <c r="B12" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="D12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>58</v>
+      <c r="I12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>16</v>
+      <c r="D13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>60</v>
+      <c r="I13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1147,157 +1150,157 @@
       <c r="B14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="C14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>62</v>
+      <c r="I14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>20</v>
+      <c r="C15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>64</v>
+      <c r="I15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="19"/>
-      <c r="C16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>23</v>
+      <c r="C16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H16" s="3"/>
-      <c r="I16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>66</v>
+      <c r="I16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="19"/>
-      <c r="C17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>26</v>
+      <c r="C17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H17" s="3"/>
-      <c r="I17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>68</v>
+      <c r="I17" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>29</v>
+      <c r="C18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>70</v>
+      <c r="I18" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>32</v>
+      <c r="C19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>72</v>
+      <c r="I19" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1305,53 +1308,53 @@
       <c r="B20" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="C20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>74</v>
+      <c r="I20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>76</v>
+      <c r="C21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
